--- a/Code/Results/Cases/Case_0_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.08743719878012257</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6279230237380489</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06789468549853694</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17.98820901680062</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.003146068211839157</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2197593822912154</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2335861272159718</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.22287908741822</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0184175782475684</v>
+        <v>0.08899340847368364</v>
       </c>
       <c r="D3">
-        <v>0.7762723984069453</v>
+        <v>0.6283865045828634</v>
       </c>
       <c r="E3">
-        <v>0.2525798675024262</v>
+        <v>0.05882268558075054</v>
       </c>
       <c r="F3">
-        <v>7.879482462752179</v>
+        <v>18.4134106178484</v>
       </c>
       <c r="G3">
-        <v>0.0006624120379761996</v>
+        <v>0.003171861845197182</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1064075554509429</v>
+        <v>0.2260456287015842</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7358944783554477</v>
+        <v>0.2085333253586725</v>
       </c>
       <c r="M3">
-        <v>30.19042057523728</v>
+        <v>15.25129885501514</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01932702486120874</v>
+        <v>0.09000477119064243</v>
       </c>
       <c r="D4">
-        <v>0.63054104126536</v>
+        <v>0.6296260947131316</v>
       </c>
       <c r="E4">
-        <v>0.2156073913805372</v>
+        <v>0.05327544463061429</v>
       </c>
       <c r="F4">
-        <v>6.592792955670518</v>
+        <v>18.69681349105085</v>
       </c>
       <c r="G4">
-        <v>0.0007204171978569411</v>
+        <v>0.003188345837087719</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0861737302061556</v>
+        <v>0.2302370251315224</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6273478087968272</v>
+        <v>0.1932644321379371</v>
       </c>
       <c r="M4">
-        <v>26.1079454552011</v>
+        <v>14.65993981377983</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01976931821678107</v>
+        <v>0.09043094390248285</v>
       </c>
       <c r="D5">
-        <v>0.5844005626661328</v>
+        <v>0.6303649232893633</v>
       </c>
       <c r="E5">
-        <v>0.2024917841567628</v>
+        <v>0.05101969978699827</v>
       </c>
       <c r="F5">
-        <v>6.235435300742864</v>
+        <v>18.81783857041657</v>
       </c>
       <c r="G5">
-        <v>0.0007411973429699202</v>
+        <v>0.003195227791812577</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08075969421649631</v>
+        <v>0.2320272487579231</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5890235596467051</v>
+        <v>0.1870678378296589</v>
       </c>
       <c r="M5">
-        <v>24.65826099461526</v>
+        <v>14.42015991544895</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01984598945370664</v>
+        <v>0.0905025570073974</v>
       </c>
       <c r="D6">
-        <v>0.5772752174377729</v>
+        <v>0.6305015359305344</v>
       </c>
       <c r="E6">
-        <v>0.2003939390961449</v>
+        <v>0.05064539746499008</v>
       </c>
       <c r="F6">
-        <v>6.182892684065365</v>
+        <v>18.83826683632213</v>
       </c>
       <c r="G6">
-        <v>0.000744535236447214</v>
+        <v>0.003196380533390744</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07997614099100758</v>
+        <v>0.2323294451940185</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5829019068221868</v>
+        <v>0.1860403611075441</v>
       </c>
       <c r="M6">
-        <v>24.42633917251902</v>
+        <v>14.38041448382387</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01933275528015344</v>
+        <v>0.09001046188993911</v>
       </c>
       <c r="D7">
-        <v>0.6298785857468658</v>
+        <v>0.6296351209490467</v>
       </c>
       <c r="E7">
-        <v>0.2154245318507222</v>
+        <v>0.05324500468328353</v>
       </c>
       <c r="F7">
-        <v>6.587465097501791</v>
+        <v>18.69842336288465</v>
       </c>
       <c r="G7">
-        <v>0.0007207059666337555</v>
+        <v>0.003188437980751565</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08609207959299425</v>
+        <v>0.2302608374177382</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6268128618662558</v>
+        <v>0.19318076282471</v>
       </c>
       <c r="M7">
-        <v>26.08773759138381</v>
+        <v>14.6567013148786</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01797350268769193</v>
+        <v>0.08796218379775667</v>
       </c>
       <c r="D8">
-        <v>1.049575973236443</v>
+        <v>0.6278806367612333</v>
       </c>
       <c r="E8">
-        <v>0.3087655323353573</v>
+        <v>0.06476127157414879</v>
       </c>
       <c r="F8">
-        <v>10.72982501432685</v>
+        <v>18.13013630857839</v>
       </c>
       <c r="G8">
-        <v>0.0005745654018394416</v>
+        <v>0.003154828886542439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1527609901988356</v>
+        <v>0.2218573096548582</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9025773858795816</v>
+        <v>0.2249224867934743</v>
       </c>
       <c r="M8">
-        <v>36.37072852406652</v>
+        <v>15.88673564556188</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01797350268769193</v>
+        <v>0.0843891023758232</v>
       </c>
       <c r="D9">
-        <v>1.049575973236443</v>
+        <v>0.6323251919796462</v>
       </c>
       <c r="E9">
-        <v>0.3087655323353573</v>
+        <v>0.08757576848373816</v>
       </c>
       <c r="F9">
-        <v>10.72982501432685</v>
+        <v>17.1965825070094</v>
       </c>
       <c r="G9">
-        <v>0.0005745654018394416</v>
+        <v>0.003093956939485412</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1527609901988356</v>
+        <v>0.2080673511151687</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9025773858795816</v>
+        <v>0.2882156917437442</v>
       </c>
       <c r="M9">
-        <v>36.37072852406652</v>
+        <v>18.34517457801371</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01797350268769193</v>
+        <v>0.08203527411139788</v>
       </c>
       <c r="D10">
-        <v>1.049575973236443</v>
+        <v>0.640850854790898</v>
       </c>
       <c r="E10">
-        <v>0.3087655323353573</v>
+        <v>0.1045525567301056</v>
       </c>
       <c r="F10">
-        <v>10.72982501432685</v>
+        <v>16.62636909177962</v>
       </c>
       <c r="G10">
-        <v>0.0005745654018394416</v>
+        <v>0.003052164581742289</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1527609901988356</v>
+        <v>0.1996631104378253</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9025773858795816</v>
+        <v>0.3355780178573866</v>
       </c>
       <c r="M10">
-        <v>36.37072852406652</v>
+        <v>20.18752276237825</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01797350268769193</v>
+        <v>0.08102365628518271</v>
       </c>
       <c r="D11">
-        <v>1.049575973236443</v>
+        <v>0.6459792490450127</v>
       </c>
       <c r="E11">
-        <v>0.3087655323353573</v>
+        <v>0.1123403550260775</v>
       </c>
       <c r="F11">
-        <v>10.72982501432685</v>
+        <v>16.39336668232761</v>
       </c>
       <c r="G11">
-        <v>0.0005745654018394416</v>
+        <v>0.003033755955177947</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1527609901988356</v>
+        <v>0.1962364461649884</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9025773858795816</v>
+        <v>0.3573649268449799</v>
       </c>
       <c r="M11">
-        <v>36.37072852406652</v>
+        <v>21.03542539613323</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01797350268769193</v>
+        <v>0.08064912265164992</v>
       </c>
       <c r="D12">
-        <v>1.049575973236443</v>
+        <v>0.6481106248887443</v>
       </c>
       <c r="E12">
-        <v>0.3087655323353573</v>
+        <v>0.1153003244797901</v>
       </c>
       <c r="F12">
-        <v>10.72982501432685</v>
+        <v>16.30904609201025</v>
       </c>
       <c r="G12">
-        <v>0.0005745654018394416</v>
+        <v>0.00302686897900129</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1527609901988356</v>
+        <v>0.1949978697167154</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9025773858795816</v>
+        <v>0.3656545512791638</v>
       </c>
       <c r="M12">
-        <v>36.37072852406652</v>
+        <v>21.35808603864331</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01797350268769193</v>
+        <v>0.08072940449446264</v>
       </c>
       <c r="D13">
-        <v>1.049575973236443</v>
+        <v>0.6476430125666184</v>
       </c>
       <c r="E13">
-        <v>0.3087655323353573</v>
+        <v>0.1146623312440269</v>
       </c>
       <c r="F13">
-        <v>10.72982501432685</v>
+        <v>16.32703007614009</v>
       </c>
       <c r="G13">
-        <v>0.0005745654018394416</v>
+        <v>0.00302834852269064</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1527609901988356</v>
+        <v>0.1952619600784402</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9025773858795816</v>
+        <v>0.3638674021230486</v>
       </c>
       <c r="M13">
-        <v>36.37072852406652</v>
+        <v>21.28852227836404</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01797350268769193</v>
+        <v>0.08099267170075564</v>
       </c>
       <c r="D14">
-        <v>1.049575973236443</v>
+        <v>0.6461507459871711</v>
       </c>
       <c r="E14">
-        <v>0.3087655323353573</v>
+        <v>0.1125836457024221</v>
       </c>
       <c r="F14">
-        <v>10.72982501432685</v>
+        <v>16.38635046431341</v>
       </c>
       <c r="G14">
-        <v>0.0005745654018394416</v>
+        <v>0.003033187692857474</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1527609901988356</v>
+        <v>0.1961333525687081</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9025773858795816</v>
+        <v>0.358046101711011</v>
       </c>
       <c r="M14">
-        <v>36.37072852406652</v>
+        <v>21.06193823862844</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01797350268769193</v>
+        <v>0.08115504439716403</v>
       </c>
       <c r="D15">
-        <v>1.049575973236443</v>
+        <v>0.6452616473193586</v>
       </c>
       <c r="E15">
-        <v>0.3087655323353573</v>
+        <v>0.1113118584831483</v>
       </c>
       <c r="F15">
-        <v>10.72982501432685</v>
+        <v>16.42319904910079</v>
       </c>
       <c r="G15">
-        <v>0.0005745654018394416</v>
+        <v>0.003036162675726745</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1527609901988356</v>
+        <v>0.1966748555264388</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9025773858795816</v>
+        <v>0.3544856620093242</v>
       </c>
       <c r="M15">
-        <v>36.37072852406652</v>
+        <v>20.92335973314061</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01797350268769193</v>
+        <v>0.08210257911244412</v>
       </c>
       <c r="D16">
-        <v>1.049575973236443</v>
+        <v>0.6405416622762061</v>
       </c>
       <c r="E16">
-        <v>0.3087655323353573</v>
+        <v>0.1040450434703288</v>
       </c>
       <c r="F16">
-        <v>10.72982501432685</v>
+        <v>16.64213724310696</v>
       </c>
       <c r="G16">
-        <v>0.0005745654018394416</v>
+        <v>0.003053379531574428</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1527609901988356</v>
+        <v>0.1998951972402239</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9025773858795816</v>
+        <v>0.334159442900841</v>
       </c>
       <c r="M16">
-        <v>36.37072852406652</v>
+        <v>20.1323217435413</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01797350268769193</v>
+        <v>0.08269903621307151</v>
       </c>
       <c r="D17">
-        <v>1.049575973236443</v>
+        <v>0.6379728958787609</v>
       </c>
       <c r="E17">
-        <v>0.3087655323353573</v>
+        <v>0.09960479805659617</v>
       </c>
       <c r="F17">
-        <v>10.72982501432685</v>
+        <v>16.78328896532111</v>
       </c>
       <c r="G17">
-        <v>0.0005745654018394416</v>
+        <v>0.003064094047709098</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1527609901988356</v>
+        <v>0.2019736966631598</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9025773858795816</v>
+        <v>0.3217550359560732</v>
       </c>
       <c r="M17">
-        <v>36.37072852406652</v>
+        <v>19.64967297315059</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01797350268769193</v>
+        <v>0.08304766744247871</v>
       </c>
       <c r="D18">
-        <v>1.049575973236443</v>
+        <v>0.6366124539842701</v>
       </c>
       <c r="E18">
-        <v>0.3087655323353573</v>
+        <v>0.09705690156864932</v>
       </c>
       <c r="F18">
-        <v>10.72982501432685</v>
+        <v>16.86695220185675</v>
       </c>
       <c r="G18">
-        <v>0.0005745654018394416</v>
+        <v>0.003070313676818434</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1527609901988356</v>
+        <v>0.2032063811138514</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9025773858795816</v>
+        <v>0.3146427850496991</v>
       </c>
       <c r="M18">
-        <v>36.37072852406652</v>
+        <v>19.37297860478697</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01797350268769193</v>
+        <v>0.08316666268860473</v>
       </c>
       <c r="D19">
-        <v>1.049575973236443</v>
+        <v>0.6361716522414724</v>
       </c>
       <c r="E19">
-        <v>0.3087655323353573</v>
+        <v>0.09619521527004338</v>
       </c>
       <c r="F19">
-        <v>10.72982501432685</v>
+        <v>16.89570103255807</v>
       </c>
       <c r="G19">
-        <v>0.0005745654018394416</v>
+        <v>0.003072429393188574</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1527609901988356</v>
+        <v>0.2036300751360685</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9025773858795816</v>
+        <v>0.312238416304325</v>
       </c>
       <c r="M19">
-        <v>36.37072852406652</v>
+        <v>19.2794464705334</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01797350268769193</v>
+        <v>0.0826349661357284</v>
       </c>
       <c r="D20">
-        <v>1.049575973236443</v>
+        <v>0.6382341642896279</v>
       </c>
       <c r="E20">
-        <v>0.3087655323353573</v>
+        <v>0.1000768363207172</v>
       </c>
       <c r="F20">
-        <v>10.72982501432685</v>
+        <v>16.76800599093048</v>
       </c>
       <c r="G20">
-        <v>0.0005745654018394416</v>
+        <v>0.003062947597123266</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1527609901988356</v>
+        <v>0.2017485741422504</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9025773858795816</v>
+        <v>0.3230731516077583</v>
       </c>
       <c r="M20">
-        <v>36.37072852406652</v>
+        <v>19.70095615351494</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01797350268769193</v>
+        <v>0.08091511152115061</v>
       </c>
       <c r="D21">
-        <v>1.049575973236443</v>
+        <v>0.6465838415677752</v>
       </c>
       <c r="E21">
-        <v>0.3087655323353573</v>
+        <v>0.1131938972142734</v>
       </c>
       <c r="F21">
-        <v>10.72982501432685</v>
+        <v>16.36881947015218</v>
       </c>
       <c r="G21">
-        <v>0.0005745654018394416</v>
+        <v>0.003031764054960654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1527609901988356</v>
+        <v>0.1958757845521006</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9025773858795816</v>
+        <v>0.3597548506344026</v>
       </c>
       <c r="M21">
-        <v>36.37072852406652</v>
+        <v>21.12844722178318</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01797350268769193</v>
+        <v>0.07984091077118194</v>
       </c>
       <c r="D22">
-        <v>1.049575973236443</v>
+        <v>0.6531495609804381</v>
       </c>
       <c r="E22">
-        <v>0.3087655323353573</v>
+        <v>0.1218309966167936</v>
       </c>
       <c r="F22">
-        <v>10.72982501432685</v>
+        <v>16.13079295838844</v>
       </c>
       <c r="G22">
-        <v>0.0005745654018394416</v>
+        <v>0.003011871868923239</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1527609901988356</v>
+        <v>0.1923826970093359</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9025773858795816</v>
+        <v>0.3839605144686686</v>
       </c>
       <c r="M22">
-        <v>36.37072852406652</v>
+        <v>22.07068290777755</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01797350268769193</v>
+        <v>0.08040965879411743</v>
       </c>
       <c r="D23">
-        <v>1.049575973236443</v>
+        <v>0.6495405077288297</v>
       </c>
       <c r="E23">
-        <v>0.3087655323353573</v>
+        <v>0.117214779942536</v>
       </c>
       <c r="F23">
-        <v>10.72982501432685</v>
+        <v>16.25569900531696</v>
       </c>
       <c r="G23">
-        <v>0.0005745654018394416</v>
+        <v>0.003022444990320329</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1527609901988356</v>
+        <v>0.1942147320466034</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9025773858795816</v>
+        <v>0.3710186269556459</v>
       </c>
       <c r="M23">
-        <v>36.37072852406652</v>
+        <v>21.5668850199857</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01797350268769193</v>
+        <v>0.0826639144049679</v>
       </c>
       <c r="D24">
-        <v>1.049575973236443</v>
+        <v>0.6381156830744033</v>
       </c>
       <c r="E24">
-        <v>0.3087655323353573</v>
+        <v>0.09986341280060174</v>
       </c>
       <c r="F24">
-        <v>10.72982501432685</v>
+        <v>16.77490760428003</v>
       </c>
       <c r="G24">
-        <v>0.0005745654018394416</v>
+        <v>0.003063465721061782</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1527609901988356</v>
+        <v>0.2018502346712694</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9025773858795816</v>
+        <v>0.3224771720411184</v>
       </c>
       <c r="M24">
-        <v>36.37072852406652</v>
+        <v>19.67776858935935</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01797350268769193</v>
+        <v>0.08530815092014876</v>
       </c>
       <c r="D25">
-        <v>1.049575973236443</v>
+        <v>0.6302335768824037</v>
       </c>
       <c r="E25">
-        <v>0.3087655323353573</v>
+        <v>0.08137178122393607</v>
       </c>
       <c r="F25">
-        <v>10.72982501432685</v>
+        <v>17.42923342300048</v>
       </c>
       <c r="G25">
-        <v>0.0005745654018394416</v>
+        <v>0.003109899322911495</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1527609901988356</v>
+        <v>0.2115013928380947</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9025773858795816</v>
+        <v>0.2709590750584425</v>
       </c>
       <c r="M25">
-        <v>36.37072852406652</v>
+        <v>17.67436448148129</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08743719878012257</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6279230237380489</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06789468549853694</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17.98820901680062</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.003146068211839157</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2197593822912154</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2335861272159718</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.22287908741822</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08899340847368364</v>
+        <v>0.01841757824719892</v>
       </c>
       <c r="D3">
-        <v>0.6283865045828634</v>
+        <v>0.7762723984070021</v>
       </c>
       <c r="E3">
-        <v>0.05882268558075054</v>
+        <v>0.2525798675023694</v>
       </c>
       <c r="F3">
-        <v>18.4134106178484</v>
+        <v>7.879482462752094</v>
       </c>
       <c r="G3">
-        <v>0.003171861845197182</v>
+        <v>0.0006624120378832325</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2260456287015842</v>
+        <v>0.1064075554508221</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2085333253586725</v>
+        <v>0.7358944783553483</v>
       </c>
       <c r="M3">
-        <v>15.25129885501514</v>
+        <v>30.19042057523706</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09000477119064243</v>
+        <v>0.01932702486038451</v>
       </c>
       <c r="D4">
-        <v>0.6296260947131316</v>
+        <v>0.6305410412653316</v>
       </c>
       <c r="E4">
-        <v>0.05327544463061429</v>
+        <v>0.2156073913805798</v>
       </c>
       <c r="F4">
-        <v>18.69681349105085</v>
+        <v>6.592792955670518</v>
       </c>
       <c r="G4">
-        <v>0.003188345837087719</v>
+        <v>0.0007204171978667111</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2302370251315224</v>
+        <v>0.08617373020636876</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1932644321379371</v>
+        <v>0.6273478087969551</v>
       </c>
       <c r="M4">
-        <v>14.65993981377983</v>
+        <v>26.10794545520099</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09043094390248285</v>
+        <v>0.01976931821629435</v>
       </c>
       <c r="D5">
-        <v>0.6303649232893633</v>
+        <v>0.5844005626661044</v>
       </c>
       <c r="E5">
-        <v>0.05101969978699827</v>
+        <v>0.2024917841567486</v>
       </c>
       <c r="F5">
-        <v>18.81783857041657</v>
+        <v>6.235435300742921</v>
       </c>
       <c r="G5">
-        <v>0.003195227791812577</v>
+        <v>0.0007411973429144934</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2320272487579231</v>
+        <v>0.08075969421664553</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1870678378296589</v>
+        <v>0.5890235596468045</v>
       </c>
       <c r="M5">
-        <v>14.42015991544895</v>
+        <v>24.65826099461538</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0905025570073974</v>
+        <v>0.01984598945371019</v>
       </c>
       <c r="D6">
-        <v>0.6305015359305344</v>
+        <v>0.5772752174373466</v>
       </c>
       <c r="E6">
-        <v>0.05064539746499008</v>
+        <v>0.2003939390960667</v>
       </c>
       <c r="F6">
-        <v>18.83826683632213</v>
+        <v>6.182892684065365</v>
       </c>
       <c r="G6">
-        <v>0.003196380533390744</v>
+        <v>0.0007445352365999872</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2323294451940185</v>
+        <v>0.07997614099082284</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1860403611075441</v>
+        <v>0.5829019068219736</v>
       </c>
       <c r="M6">
-        <v>14.38041448382387</v>
+        <v>24.42633917251891</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09001046188993911</v>
+        <v>0.01933275528059752</v>
       </c>
       <c r="D7">
-        <v>0.6296351209490467</v>
+        <v>0.6298785857468658</v>
       </c>
       <c r="E7">
-        <v>0.05324500468328353</v>
+        <v>0.2154245318508003</v>
       </c>
       <c r="F7">
-        <v>18.69842336288465</v>
+        <v>6.587465097501791</v>
       </c>
       <c r="G7">
-        <v>0.003188437980751565</v>
+        <v>0.0007207059667342404</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2302608374177382</v>
+        <v>0.08609207959321452</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.19318076282471</v>
+        <v>0.6268128618660569</v>
       </c>
       <c r="M7">
-        <v>14.6567013148786</v>
+        <v>26.08773759138398</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08796218379775667</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D8">
-        <v>0.6278806367612333</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E8">
-        <v>0.06476127157414879</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F8">
-        <v>18.13013630857839</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G8">
-        <v>0.003154828886542439</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2218573096548582</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2249224867934743</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M8">
-        <v>15.88673564556188</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0843891023758232</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D9">
-        <v>0.6323251919796462</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E9">
-        <v>0.08757576848373816</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F9">
-        <v>17.1965825070094</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G9">
-        <v>0.003093956939485412</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2080673511151687</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2882156917437442</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M9">
-        <v>18.34517457801371</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08203527411139788</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D10">
-        <v>0.640850854790898</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E10">
-        <v>0.1045525567301056</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F10">
-        <v>16.62636909177962</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G10">
-        <v>0.003052164581742289</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1996631104378253</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3355780178573866</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M10">
-        <v>20.18752276237825</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08102365628518271</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D11">
-        <v>0.6459792490450127</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E11">
-        <v>0.1123403550260775</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F11">
-        <v>16.39336668232761</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G11">
-        <v>0.003033755955177947</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1962364461649884</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3573649268449799</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M11">
-        <v>21.03542539613323</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08064912265164992</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D12">
-        <v>0.6481106248887443</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E12">
-        <v>0.1153003244797901</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F12">
-        <v>16.30904609201025</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G12">
-        <v>0.00302686897900129</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1949978697167154</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3656545512791638</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M12">
-        <v>21.35808603864331</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08072940449446264</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D13">
-        <v>0.6476430125666184</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E13">
-        <v>0.1146623312440269</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F13">
-        <v>16.32703007614009</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G13">
-        <v>0.00302834852269064</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1952619600784402</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3638674021230486</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M13">
-        <v>21.28852227836404</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08099267170075564</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D14">
-        <v>0.6461507459871711</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E14">
-        <v>0.1125836457024221</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F14">
-        <v>16.38635046431341</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G14">
-        <v>0.003033187692857474</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1961333525687081</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.358046101711011</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M14">
-        <v>21.06193823862844</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08115504439716403</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D15">
-        <v>0.6452616473193586</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E15">
-        <v>0.1113118584831483</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F15">
-        <v>16.42319904910079</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G15">
-        <v>0.003036162675726745</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1966748555264388</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3544856620093242</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M15">
-        <v>20.92335973314061</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08210257911244412</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D16">
-        <v>0.6405416622762061</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E16">
-        <v>0.1040450434703288</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F16">
-        <v>16.64213724310696</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G16">
-        <v>0.003053379531574428</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1998951972402239</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.334159442900841</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M16">
-        <v>20.1323217435413</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08269903621307151</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D17">
-        <v>0.6379728958787609</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E17">
-        <v>0.09960479805659617</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F17">
-        <v>16.78328896532111</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G17">
-        <v>0.003064094047709098</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2019736966631598</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3217550359560732</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M17">
-        <v>19.64967297315059</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08304766744247871</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D18">
-        <v>0.6366124539842701</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E18">
-        <v>0.09705690156864932</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F18">
-        <v>16.86695220185675</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G18">
-        <v>0.003070313676818434</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2032063811138514</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3146427850496991</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M18">
-        <v>19.37297860478697</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08316666268860473</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D19">
-        <v>0.6361716522414724</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E19">
-        <v>0.09619521527004338</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F19">
-        <v>16.89570103255807</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G19">
-        <v>0.003072429393188574</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2036300751360685</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.312238416304325</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M19">
-        <v>19.2794464705334</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0826349661357284</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D20">
-        <v>0.6382341642896279</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E20">
-        <v>0.1000768363207172</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F20">
-        <v>16.76800599093048</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G20">
-        <v>0.003062947597123266</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2017485741422504</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3230731516077583</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M20">
-        <v>19.70095615351494</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08091511152115061</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D21">
-        <v>0.6465838415677752</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E21">
-        <v>0.1131938972142734</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F21">
-        <v>16.36881947015218</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G21">
-        <v>0.003031764054960654</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1958757845521006</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3597548506344026</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M21">
-        <v>21.12844722178318</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07984091077118194</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D22">
-        <v>0.6531495609804381</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E22">
-        <v>0.1218309966167936</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F22">
-        <v>16.13079295838844</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G22">
-        <v>0.003011871868923239</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1923826970093359</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3839605144686686</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M22">
-        <v>22.07068290777755</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08040965879411743</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D23">
-        <v>0.6495405077288297</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E23">
-        <v>0.117214779942536</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F23">
-        <v>16.25569900531696</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G23">
-        <v>0.003022444990320329</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1942147320466034</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3710186269556459</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M23">
-        <v>21.5668850199857</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0826639144049679</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D24">
-        <v>0.6381156830744033</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E24">
-        <v>0.09986341280060174</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F24">
-        <v>16.77490760428003</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G24">
-        <v>0.003063465721061782</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2018502346712694</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3224771720411184</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M24">
-        <v>19.67776858935935</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08530815092014876</v>
+        <v>0.01797350268795483</v>
       </c>
       <c r="D25">
-        <v>0.6302335768824037</v>
+        <v>1.049575973236557</v>
       </c>
       <c r="E25">
-        <v>0.08137178122393607</v>
+        <v>0.308765532335336</v>
       </c>
       <c r="F25">
-        <v>17.42923342300048</v>
+        <v>10.72982501432762</v>
       </c>
       <c r="G25">
-        <v>0.003109899322911495</v>
+        <v>0.0005745654018109806</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2115013928380947</v>
+        <v>0.1527609901988569</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2709590750584425</v>
+        <v>0.9025773858796953</v>
       </c>
       <c r="M25">
-        <v>17.67436448148129</v>
+        <v>36.37072852406754</v>
       </c>
       <c r="N25">
         <v>0</v>
